--- a/data/education_en.xlsx
+++ b/data/education_en.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Mile_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF6F1D-E97A-499F-A277-B32C69BDD06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B90FC3E-BCCB-4330-9176-787CC33A455F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="2865" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>what</t>
   </si>
@@ -37,55 +37,40 @@
     <t>why</t>
   </si>
   <si>
-    <t>PhD - Psychology</t>
-  </si>
-  <si>
-    <t>Stirling, UK</t>
-  </si>
-  <si>
-    <t>MSc in Evolutionary Psychology</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liverpool, UK</t>
-  </si>
-  <si>
-    <t>BA in Music Pedagogy</t>
-  </si>
-  <si>
-    <t>Bogota, Colombia</t>
-  </si>
-  <si>
-    <t>Best overall performance in the MSc</t>
-  </si>
-  <si>
-    <t>GPA: 4.28/5.00</t>
-  </si>
-  <si>
-    <t>\href{https://www.stir.ac.uk/}{University of Stirling}</t>
-  </si>
-  <si>
-    <t>Supervisors: \href{https://www.scraigroberts.com/}{Prof. S. Craig Roberts} and \href{https://scholar.google.com/citations?user=iDDoxVsAAAAJ}{Prof. Anthony C. Little}</t>
-  </si>
-  <si>
-    <t>Committee members: \href{https://scholar.google.co.uk/citations?user=wxh9svQAAAAJ}{Prof. Phyllis C. Lee} (dissertation chair) and \href{https://scholar.google.com/citations?user=Qo23OGoAAAAJ}{Prof. Stuart Semple}</t>
-  </si>
-  <si>
-    <t>Supervisor: \href{https://www.scraigroberts.com/}{Prof. S. Craig Roberts}</t>
-  </si>
-  <si>
-    <t>\href{https://www.liverpool.ac.uk/}{University of Liverpool}</t>
-  </si>
-  <si>
-    <t>\href{https://www.upn.edu.co/}{Universidad Pedagógica Nacional}</t>
-  </si>
-  <si>
-    <t>Research project: \href{https://dspace.stir.ac.uk/handle/1893/21102}{\textbf{\textit{Contextual musicality: vocal modulation and its perception in human social interaction}}}</t>
-  </si>
-  <si>
-    <t>Research project: \textbf{\textit{Variation of pitch and loudness range of human voice in response to intra- and inter-sexual stimuli}}</t>
-  </si>
-  <si>
-    <t>Research project: 4.90/5.00 | \href{https://revistas.pedagogica.edu.co/index.php/revistafba/article/view/50}{\textbf{\textit{El origen no humano de la música}}}</t>
+    <t>PhD - Neurosciences</t>
+  </si>
+  <si>
+    <t>\href{https://www.uv.es/uvweb/universidad/es/universidad-valencia-1285845048380.html}{Universidad de Valencia}</t>
+  </si>
+  <si>
+    <t>Valencia, España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master's Degree in Basic and Applied Neurosciences </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychology </t>
+  </si>
+  <si>
+    <t>\href{https://www.ucatolica.edu.co/portal/Pregrado/psicologia/}{Universidad Cátolica de Colombia}</t>
+  </si>
+  <si>
+    <t>Bogotá, Colombia</t>
+  </si>
+  <si>
+    <t>Research project: \href{https://producciocientifica.uv.es/documentos/5eb09d10299952764112462f}{\textbf{\textit{Preferencias sexuales típicas y atípicas según sexo y edad de los estímulosutilidad de la técnica de rastreo ocular}}}</t>
+  </si>
+  <si>
+    <t>Research product: \href{https://revistas.um.es/analesps/article/view/analesps.31.1.167241/169861}{\textbf{\textit{Effects of assisted training with neurofeedback on EEG measures, executive function and mood in a healthy sample}}}</t>
+  </si>
+  <si>
+    <t>Supervisor: \href{https://www.researchgate.net/profile/Marien-Gadea}{Prof. Marien Gadea}</t>
+  </si>
+  <si>
+    <t>Research product: \href{http://www.scielo.org.co/scielo.php?pid=S1794-99982009000200010&amp;script=sci_arttext}{\textbf{\textit{Diseño del cuestionario de creencias referidas al consumo de alcohol para jóvenes universitarios}}}</t>
+  </si>
+  <si>
+    <t>Supervisors: \href{https://www.uv.es/labnsc/miembros\%20individualmente/miembrosaliciasalvador.html/}{Prof. Alicia Salvador}, y \href{https://jdleongomez.info/es/}{Prof. Juan David Leongómez}</t>
   </si>
 </sst>
 </file>
@@ -932,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,21 +949,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -987,169 +972,107 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2009</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
